--- a/sources/modelo-Raposo.xlsx
+++ b/sources/modelo-Raposo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuri\Documents\Sistema TRV - Bases\NEO\Raposo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prado\Documents\travessia\projeto-travessia\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFDE169-5CA5-4E5E-B4AD-8005A100CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160BCF2-7469-4188-B738-9B0D83CDCB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{370DA055-CB71-4F1C-9B16-4AEA37A59957}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{370DA055-CB71-4F1C-9B16-4AEA37A59957}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Consolidado" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="[$-416]mmm/yy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,6 +991,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1190,7 +1197,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1944,6 +1951,7 @@
     <xf numFmtId="44" fontId="17" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -4429,18 +4437,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9615,7 +9623,7 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -9694,7 +9702,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="267">
         <f>Recebíveis!L3</f>
-        <v>45199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9738,7 +9746,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="21">
         <f>DATE(YEAR(J4),MONTH(J4),1)</f>
-        <v>45170</v>
+        <v>1</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>9</v>
@@ -9756,7 +9764,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="str">
         <f t="shared" ref="F8:F18" si="0">EDATE($I$7,0)&amp;G8</f>
-        <v>45170Total Recebido mês Carteira</v>
+        <v>1Total Recebido mês Carteira</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>161</v>
@@ -9780,7 +9788,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170Recebimento antecipado</v>
+        <v>1Recebimento antecipado</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>12</v>
@@ -9806,7 +9814,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170Recebimento regular (até 5 dias de Atraso)</v>
+        <v>1Recebimento regular (até 5 dias de Atraso)</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>162</v>
@@ -9832,7 +9840,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170Recebimento em atraso</v>
+        <v>1Recebimento em atraso</v>
       </c>
       <c r="G11" s="27" t="s">
         <v>15</v>
@@ -9857,7 +9865,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>1</v>
       </c>
       <c r="G12" s="270"/>
       <c r="H12" s="270"/>
@@ -9876,7 +9884,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170(i) Recebimento de parcelas com vencimento no mês</v>
+        <v>1(i) Recebimento de parcelas com vencimento no mês</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>168</v>
@@ -9900,7 +9908,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170(ii) Inadimplência no mês (parcelas com vencimento no mês e não pagas)</v>
+        <v>1(ii) Inadimplência no mês (parcelas com vencimento no mês e não pagas)</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>169</v>
@@ -9924,7 +9932,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170(iii) = (i) + (ii) Fluxo esperado da Carteira (mês)</v>
+        <v>1(iii) = (i) + (ii) Fluxo esperado da Carteira (mês)</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>170</v>
@@ -9948,7 +9956,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170(iv) = (i) / (iii) % Recebimento Regular</v>
+        <v>1(iv) = (i) / (iii) % Recebimento Regular</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>171</v>
@@ -9970,7 +9978,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170</v>
+        <v>1</v>
       </c>
       <c r="G17" s="270"/>
       <c r="H17" s="270"/>
@@ -9990,7 +9998,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>45170Saldo Adimplente da Carteira</v>
+        <v>1Saldo Adimplente da Carteira</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>20</v>
@@ -10012,7 +10020,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="str">
         <f>EDATE($I$7,0)&amp;G19</f>
-        <v>45170Saldo Devedor Inadimplência superior a 90 dias</v>
+        <v>1Saldo Devedor Inadimplência superior a 90 dias</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>22</v>
@@ -10223,25 +10231,25 @@
       <c r="B33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="278" t="str">
+      <c r="C33" s="279" t="str">
         <f>C7</f>
         <v>93ª série</v>
       </c>
-      <c r="D33" s="279"/>
-      <c r="E33" s="279"/>
-      <c r="F33" s="279"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="280"/>
+      <c r="F33" s="280"/>
     </row>
     <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="280" t="s">
+      <c r="C34" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="281"/>
-      <c r="E34" s="282" t="s">
+      <c r="D34" s="282"/>
+      <c r="E34" s="283" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="283"/>
+      <c r="F34" s="284"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -10430,14 +10438,14 @@
     <row r="46" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="74"/>
-      <c r="C46" s="284" t="s">
+      <c r="C46" s="285" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="284"/>
-      <c r="E46" s="284"/>
-      <c r="F46" s="284"/>
-      <c r="G46" s="284"/>
-      <c r="H46" s="284"/>
+      <c r="D46" s="285"/>
+      <c r="E46" s="285"/>
+      <c r="F46" s="285"/>
+      <c r="G46" s="285"/>
+      <c r="H46" s="285"/>
       <c r="I46" s="51" t="s">
         <v>47</v>
       </c>
@@ -10450,14 +10458,14 @@
       <c r="B47" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="285" t="s">
+      <c r="C47" s="286" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="285"/>
-      <c r="E47" s="285"/>
-      <c r="F47" s="285"/>
-      <c r="G47" s="285"/>
-      <c r="H47" s="285"/>
+      <c r="D47" s="286"/>
+      <c r="E47" s="286"/>
+      <c r="F47" s="286"/>
+      <c r="G47" s="286"/>
+      <c r="H47" s="286"/>
       <c r="I47" s="76">
         <f>J25</f>
         <v>0</v>
@@ -10472,14 +10480,14 @@
       <c r="B48" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="277" t="s">
+      <c r="C48" s="278" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="277"/>
-      <c r="E48" s="277"/>
-      <c r="F48" s="277"/>
-      <c r="G48" s="277"/>
-      <c r="H48" s="277"/>
+      <c r="D48" s="278"/>
+      <c r="E48" s="278"/>
+      <c r="F48" s="278"/>
+      <c r="G48" s="278"/>
+      <c r="H48" s="278"/>
       <c r="I48" s="79" t="e">
         <f>(J15)/C19</f>
         <v>#DIV/0!</v>
@@ -12550,7 +12558,7 @@
       </c>
       <c r="C61" s="34">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="118">
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B61)</f>
@@ -12816,7 +12824,7 @@
       </c>
       <c r="C68" s="119">
         <f>COUNTIFS(Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B68)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="120">
         <f>SUMIFS(Recebíveis!L:L,Recebíveis!N:N,"Atraso",Recebíveis!R:R,'Relatório Analítico'!B68)</f>
@@ -31306,8 +31314,8 @@
   </sheetPr>
   <dimension ref="A1:R339"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31331,6 +31339,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="277"/>
       <c r="K1" s="180" t="s">
         <v>139</v>
       </c>
@@ -31355,7 +31364,8 @@
         <v>140</v>
       </c>
       <c r="L3" s="181">
-        <v>45199</v>
+        <f>DATE(YEAR(A1),MONTH(A1),DAY(A1))</f>
+        <v>0</v>
       </c>
       <c r="M3" s="185"/>
       <c r="O3" s="178"/>
@@ -31440,7 +31450,7 @@
       </c>
       <c r="O7">
         <f>12*(YEAR(G7)-YEAR($L$3))+(MONTH(G7)-MONTH($L$3))</f>
-        <v>-1484</v>
+        <v>0</v>
       </c>
       <c r="P7" s="163">
         <f>IF(N7="Atraso",L7,L7/(1+$L$2)^O7)</f>
@@ -31448,11 +31458,11 @@
       </c>
       <c r="Q7">
         <f>IF(N7="Atraso",$L$3-G7,0)</f>
-        <v>45199</v>
+        <v>0</v>
       </c>
       <c r="R7" t="str">
         <f>IF(Q7&lt;=15,"Até 15",IF(Q7&lt;=30,"Entre 15 e 30",IF(Q7&lt;=60,"Entre 30 e 60",IF(Q7&lt;=90,"Entre 60 e 90",IF(Q7&lt;=120,"Entre 90 e 120",IF(Q7&lt;=150,"Entre 120 e 150",IF(Q7&lt;=180,"Entre 150 e 180","Superior a 180")))))))</f>
-        <v>Superior a 180</v>
+        <v>Até 15</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
